--- a/Project/static/this_month.xlsx
+++ b/Project/static/this_month.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,898 +546,1697 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>李茂山</t>
+          <t>蔡文婷</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0910057979</t>
+          <t>9559958,0932183704</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>三星鄉清洲二路80號</t>
+          <t>羅東鎮禮運路60號12之1(孩子王)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-07-17</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>林先生(里幹事)</t>
+          <t>李茂山</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0919285441</t>
+          <t>0910057979</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>宜蘭市黎明三路329巷22弄1號</t>
+          <t>三星鄉清洲二路80號</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>石吉村</t>
+          <t>蔡錦蓮(海勒)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9325837,0910935066</t>
+          <t>02-29284405</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>宜蘭市健康路一段71巷2號</t>
+          <t>新北市永和區民樂街29號1樓</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>鐵支路早餐</t>
+          <t>江孫阿琴(瑞昌岳母)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9592615,0982734910</t>
+          <t>0912591253</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>冬山鄉中華路23號(冬山火車站前)</t>
+          <t>蘇澳鎮陽明巷1號</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2021-07-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>金舞台小吃</t>
+          <t>里幹事：林先生</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9563879,0955800747男</t>
+          <t>0919285441</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>羅東鎮康莊路36-4號6樓</t>
+          <t>宜蘭市黎明三路329巷22弄1號</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2021-09-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>優的休閒民宿</t>
+          <t>林煌貴</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0911894667</t>
+          <t xml:space="preserve">9612696,★0918096801(林'r)
+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>冬山鄉安農三路6巷18號</t>
+          <t>羅東鎮純精路一段95號3樓</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>非凡女人黃文珠</t>
+          <t>黃秋蘭</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9561416,0927766006</t>
+          <t>9880528,0963137688</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>羅東鎮純精路三段151號</t>
+          <t>礁溪鄉礁溪路五段90巷1-7號7樓(礁溪益順軒樓上)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2021-10-08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>胡俊明</t>
+          <t>游秀香</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0938126816</t>
+          <t>9903027</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>基隆市仁二路77號</t>
+          <t>蘇澳鎮光榮路92巷6號</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>莊正參</t>
+          <t>石吉村</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0922627789</t>
+          <t>9325837,0910935066</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>羅東鎮南盟路69巷1號6F-1</t>
+          <t>宜蘭市健康路一段71巷2號</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>三源行</t>
+          <t>鐵支路早餐</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9323759</t>
+          <t>9592615,0982734910</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>宜蘭市昇平街46號</t>
+          <t>冬山鄉中華路23號(冬山火車站前)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021-11-08</t>
+          <t>2021-11-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蕭秀芬</t>
+          <t>陳明彥</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9385539,0911209144</t>
+          <t>0933280659媽,0927187713</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>宜蘭市東港路二段85號</t>
+          <t>員山鄉永同路二段51號</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021-11-09</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>柳素花</t>
+          <t>金舞台小吃</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0920828363</t>
+          <t>9563879,0955800747男</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>頭城鎮青雲路二段151號</t>
+          <t>羅東鎮康莊路36-4號6樓</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021-11-09</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>海棠花(原格林)</t>
+          <t>優的休閒民宿</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9321177,0919904013(林鴻飛太太)</t>
+          <t>0911894667</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>宜蘭市中山路二段410號</t>
+          <t>冬山鄉安農三路6巷18號</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>塔塔髮廊</t>
+          <t>非凡女人黃文珠</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9571980</t>
+          <t>9561416,0927766006</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>羅東鎮公正路177號</t>
+          <t>羅東鎮純精路三段151號</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>墾趣</t>
+          <t>景鴻汽車材料-張秋發</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9320398</t>
+          <t>9289111、9286185,09122295876(男),0933986708(蔡'S)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>宜蘭市中山路三段127號</t>
+          <t>礁溪鄉礁溪路一段287巷6號</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021-11-14</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>薛志明</t>
+          <t>胡俊明</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9556089,0939733565</t>
+          <t>0938126816</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>羅東鎮樹人路1巷12弄3號</t>
+          <t>基隆市仁二路77號</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>李順益</t>
+          <t>黃仲駿</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0919900288</t>
+          <t>0955053743</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>宜蘭中興路155巷3號</t>
+          <t>基隆市南新街74-甲2樓</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>葉春美</t>
+          <t>莊正參</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0928085287</t>
+          <t>0922627789</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>宜蘭市中興路155巷5號</t>
+          <t>羅東鎮南盟路69巷1號6F-1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021-11-18</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>鄧璜福(高鉅代安裝)</t>
+          <t>三源行</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0917693385,0917176570</t>
+          <t>9323759</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>員山鄉賢德路二段107巷22號、20號</t>
+          <t>宜蘭市昇平街46號</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021-11-19</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>郭淑君</t>
+          <t>蔡旺燦</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0911218885</t>
+          <t>9557937</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>冬山鄉冬山路三段301巷63號</t>
+          <t>羅東鎮復興路二段213巷42號</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021-11-22</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>陳宜卉</t>
+          <t>邱俊忠</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9233781,0987876738</t>
+          <t>9388075,0922762660</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>員山鄉金泰路300巷75弄16號</t>
+          <t>宜蘭市黎明三路448巷18弄8號</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021-11-22</t>
+          <t>2021-11-08</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>林欣蓉</t>
+          <t>蕭秀芬</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0921626303</t>
+          <t>9385539,0911209144</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>五結鄉清水路15巷1號5樓(晏京帝寶)</t>
+          <t>宜蘭市東港路二段85號</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021-11-25</t>
+          <t>2021-11-08</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>林光輝</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>9906619,0919216317</t>
-        </is>
-      </c>
+          <t>谷倉-羅東店</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>蘇澳鎮信義路</t>
+          <t>羅東鎮中正北路7號</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021-11-27</t>
+          <t>2021-11-09</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>郭宜橤藍嘉榮</t>
+          <t>柳素花</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0911911536,0980120270(先生)</t>
+          <t>0920828363</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>新北市三重區成功路110號4樓之6</t>
+          <t>頭城鎮青雲路二段151號</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021-12-28</t>
+          <t>2021-11-09</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>簡小姐</t>
+          <t>海棠花(原格林)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9388030</t>
+          <t>9321177,0919904013(林鴻飛太太)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>潘彼得</t>
+          <t>宜蘭市中山路二段410號</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2022-02-08</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>大鼻南包子龍潭</t>
+          <t>塔塔髮廊</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9288276,9281200</t>
+          <t>9571980</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>宜蘭市大坡路二段199號</t>
+          <t>羅東鎮公正路177號</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2022-02-09</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>紫竹嚴</t>
+          <t>林麗雲(承奕)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>02-24226683</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>0921633727</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>宜蘭市民族路525巷43弄3號4樓</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>黃振豪</t>
+          <t>墾趣</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9874638,0955156231(兒)</t>
+          <t>9320398</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>礁溪鄉白雲二路87號</t>
+          <t>宜蘭市中山路三段127號</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2021-11-11</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>請上座</t>
+          <t>黃珠玲國際</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>9770450,0915120300</t>
+          <t>0911209683</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>頭城鎮開蘭路379號</t>
+          <t>礁溪鄉玉石路42-23號</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2021-11-12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>谷倉張鈞發</t>
+          <t>稻民宿謝木森</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0915613142</t>
+          <t>9606677,0975002619</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>宜蘭市女中路三段561號</t>
+          <t>冬山鄉武淵一路56號</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2021-11-13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>林清山</t>
+          <t>張子宜(智淳)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0919005730</t>
+          <t>★0989956668(張's)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>宜蘭市慈安路49巷3弄8號</t>
+          <t>員山鄉尚好路7號(聯全麻薯)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2021-11-14</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>鼎祐牙醫陳小姐</t>
+          <t>薛志明</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9530889,0955977522</t>
+          <t>9556089,0939733565</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>羅東鎮興東路205號</t>
+          <t>羅東鎮樹人路1巷12弄3號</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>李美雲</t>
+          <t>周逸</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>9514481</t>
+          <t>0956563192(弟弟),0910668399(小周)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>冬山鄉廣興路680巷127號(宜蘭食品旁)</t>
+          <t>羅東鎮安平路83號(225111)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022-02-21</t>
+          <t>2021-11-16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Camellia(咖啡)</t>
+          <t>林映君</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>9588496</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>0921157337</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>礁溪鄉大竹圍路266號</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2021-11-17</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>春水笈</t>
+          <t>李順益</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>9882623,0975513760林國文</t>
+          <t>0919900288</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>礁溪鄉六結路128號</t>
+          <t>宜蘭中興路155巷3號</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2021-11-17</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>廣食堂游'r</t>
+          <t>葉春美</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>9386818,0932359581-原羅家压羅先生</t>
+          <t>0928085287</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>宜蘭市黎明二路367巷3號</t>
+          <t>宜蘭市中興路155巷5號</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2021-11-17</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>楓情卡拉OK</t>
+          <t>陳美麗(保險)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>聯絡電話9548008</t>
+          <t>9281991,0961281991</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>羅東鎮天津路38號</t>
+          <t>宜蘭市中山路五段127巷36號</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2021-11-17</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>宅急便-宜蘭所</t>
+          <t>方秀娥</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0972136371</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>0952439021吳'R,0958881005方'S</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>礁溪鄉奇峰街2號2樓</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2021-11-17</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>宅急便-冬山衛</t>
+          <t>梁少章</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9500118</t>
+          <t>9680183,0905650928</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>五結鄉中興路2段240號</t>
+          <t>冬山鄉香南路57號</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2021-11-18</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>宅急便-頭城衛</t>
+          <t>鄧璜福(高鉅代安裝)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0972136371</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>0917693385,0917176570</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>員山鄉賢德路二段107巷22號、20號</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2021-11-18</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>順有食品</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+          <t>林宏仁</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0963022493</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>五結鄉大吉二路433號</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>2021-11-19</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>郭淑君</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0911218885</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>冬山鄉冬山路三段301巷63號</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2021-11-22</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>陳宜卉</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>9233781,0987876738</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>員山鄉金泰路300巷75弄16號</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2021-11-22</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>林欣蓉</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0921626303</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>五結鄉清水路15巷1號5樓(晏京帝寶)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2021-11-25</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>林光輝</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>9906619,0919216317</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>蘇澳鎮信義路</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2021-11-26</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>致樂元素</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>9615722</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>羅東鎮復興路388巷47弄22號(頤和園)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2021-11-27</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>郭宜橤藍嘉榮</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0911911536,0980120270(先生)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>新北市三重區成功路110號4樓之6</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2021-12-28</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>簡小姐</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>9388030</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>潘彼得</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>許家程</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0988670120</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>三星農舍</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>大鼻南包子龍潭</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>9288276,9281200</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>宜蘭市大坡路二段199號</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>紫竹嚴</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>02-24226683</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>黃振豪</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>9874638,0955156231(兒)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>礁溪鄉白雲二路87號</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>請上座</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>9770450,0915120300</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>頭城鎮開蘭路379號</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022-02-12</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>谷倉張鈞發</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0915613142</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>宜蘭市女中路三段561號</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>林清山</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0919005730</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>宜蘭市慈安路49巷3弄8號</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>鼎祐牙醫陳小姐3</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9530889,0955977522</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>羅東鎮興東路205號</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>林宏彥</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>9281912,0921926158</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>果菜市場</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>東嶽廟</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>9322590</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>宜蘭市中山路二段299號</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2022-02-15</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>李美雲</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9514481,0927892205,0938135878女兒(林小姐),0927892205(媽媽),0970426566(白'r)							</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>冬山鄉廣興路680巷127號(宜蘭食品旁)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2022-02-15</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>清心福全五結店</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>9600699,0955555885何'R、0933333186(女)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>五結鄉五結路二段516號</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>高林鍋物燒烤(水電阿賢)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>9324316</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>宜蘭市三清路34號</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>冬山鄉公所-1樓大廳</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>9591105#292江'S,9590316</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>冬山鄉公所-3樓</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>9591105#292江'S,9590316</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>冬山鄉公所-1樓茶水間</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>9591105#292江'S,9590316</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>冬山鄉民代表會</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9593027劉小姐</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>冬山鄉</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>冬山鄉民代表會</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>9593027劉小姐</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>冬山鄉</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>宜蘭旅遊服務中心</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>9312152、9505544#26林's,0911828110梁組長</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>宜蘭市宜興路一段252號</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022-02-21</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Camellia(咖啡)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>9588496</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022-02-22</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>春水笈</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>9882623,0975513760林國文</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>礁溪鄉六結路128號</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022-02-22</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>廣食堂游'r</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>9386818,0932359581-原羅家压羅先生</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>宜蘭市黎明二路367巷3號</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022-02-23</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>金宴翔餐廳</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>9326628,0919215081楊世鴻</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>宜蘭市復興路三段107號</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022-02-23</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>光南製藥</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>9381378、9383235蔡's</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>宜蘭市黎明二路240號</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>楓情卡拉OK</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>聯絡電話9548008</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>羅東鎮天津路38號</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022-03-08</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>宅急便-宜蘭所</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0972136371</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022-03-08</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>宅急便-冬山衛</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>9500118</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>五結鄉中興路2段240號</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>宅急便-頭城衛</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0972136371</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>水巷茶弄-宜蘭</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>9363060</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>宜蘭市中山路二段518號</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>順有食品</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>2022-04-13</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>大鼻南包子泰山店</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>9311838,0928642692</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>宜蘭市泰山路18-5號</t>
         </is>

--- a/Project/static/this_month.xlsx
+++ b/Project/static/this_month.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,1787 +458,4896 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>0000-00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>蕭崧翰</t>
+          <t xml:space="preserve">黃順正(小戴)		</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9594294</t>
+          <t>9961279、0958685029</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>冬山鄉進福路191號</t>
+          <t>蘇澳鎮聖愛路101號</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>0000-00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>朱展論</t>
+          <t xml:space="preserve">吳嘉彤(男)			</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9222200,0975759925</t>
+          <t>0955668500</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>員山鄉尚深路150巷15號</t>
+          <t>羅東鎮樹人路31巷3號</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>0000-00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>易小姐</t>
+          <t xml:space="preserve">楊顯晉				</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0935063657</t>
+          <t xml:space="preserve">0930683016、0935640518				</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>五結鄉國民中路11-18號(五結特教後面)</t>
+          <t xml:space="preserve">湯園1 161號6樓之10				</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>0000-00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>順安早餐董先生</t>
+          <t>林惠娜(湯園二 A棟14樓之5)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9584372</t>
+          <t>0918050235</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>冬山鄉義成路二段402號</t>
+          <t>湯園二 A棟14樓之5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>0000-00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>蔡文婷</t>
+          <t>張燦埤(愛科代裝)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9559958,0932183704</t>
+          <t>0932229097(女)、0932229868(男)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>羅東鎮禮運路60號12之1(孩子王)</t>
+          <t>三星鄉富貴二路58號1樓</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>0000-00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>李茂山</t>
+          <t xml:space="preserve">施文龍(10"大胖二道)		</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0910057979</t>
+          <t>0935186422</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>三星鄉清洲二路80號</t>
+          <t>員山鄉惠深一路110號</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2020-06-23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>蔡錦蓮(海勒)</t>
+          <t>陳德陞</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>02-29284405</t>
+          <t>0939327237、0929680230(女)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>新北市永和區民樂街29號1樓</t>
+          <t>羅東鎮西安街260號</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>江孫阿琴(瑞昌岳母)</t>
+          <t>郭其海(民宿)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0912591253</t>
+          <t>0922098159</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>蘇澳鎮陽明巷1號</t>
+          <t>羅東鎮新群三路162號</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-07-17</t>
+          <t>2021-10-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>里幹事：林先生</t>
+          <t>李建賢</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0919285441</t>
+          <t>0937109351(卡迪亞)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>宜蘭市黎明三路329巷22弄1號</t>
+          <t>五結鄉三興路10號</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-09-04</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>林煌貴</t>
+          <t>陳錦麟</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">9612696,★0918096801(林'r)
-</t>
+          <t>0932344602</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>羅東鎮純精路一段95號3樓</t>
+          <t>裸水2樓之12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>黃秋蘭</t>
+          <t>黃勝芝(老爺酒店)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9880528,0963137688</t>
+          <t>0919933646</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>礁溪鄉礁溪路五段90巷1-7號7樓(礁溪益順軒樓上)</t>
+          <t>宜蘭市中山路五段197巷66號</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>游秀香</t>
+          <t xml:space="preserve">石秀鳳(潘彼得)				</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9903027</t>
+          <t xml:space="preserve">0927300568、★	0979399567(呂's)	</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>蘇澳鎮光榮路92巷6號</t>
+          <t xml:space="preserve">宜蘭市黎明三路一段57巷6號6樓(1號梯，出電梯左邊)		</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>石吉村</t>
+          <t>林永欣(初一早餐家)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9325837,0910935066</t>
+          <t>0911563226</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>宜蘭市健康路一段71巷2號</t>
+          <t>頭城鎮宜三路一段80號</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>鐵支路早餐</t>
+          <t>邵小姐</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9592615,0982734910</t>
+          <t>0987325658</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>冬山鄉中華路23號(冬山火車站前)</t>
+          <t>礁溪鄉仁愛路168號1樓</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021-11-01</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>陳明彥</t>
+          <t>李孫榮(楓盈設計)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0933280659媽,0927187713</t>
+          <t>9373760、0961292875</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>員山鄉永同路二段51號</t>
+          <t>宜蘭市樹人路58號8樓E1(歡歡喜喜)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>金舞台小吃</t>
+          <t>朱玉卿(詮哥助理)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9563879,0955800747男</t>
+          <t>0963305678</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>羅東鎮康莊路36-4號6樓</t>
+          <t>羅東鎮崇德街131號</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>優的休閒民宿</t>
+          <t xml:space="preserve">何素菁(愛科經銷裝)				</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0911894667</t>
+          <t xml:space="preserve">0931115432				</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>冬山鄉安農三路6巷18號</t>
+          <t xml:space="preserve">羅東鎮復興路三段1巷30弄27號3樓				</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>非凡女人黃文珠</t>
+          <t>曾寶蒂</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9561416,0927766006</t>
+          <t>0915046666(兒子)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>羅東鎮純精路三段151號</t>
+          <t>蘇澳鎮永春路208號</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>景鴻汽車材料-張秋發</t>
+          <t>清心福全蘇澳店</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9289111、9286185,09122295876(男),0933986708(蔡'S)</t>
+          <t>9552998</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>礁溪鄉礁溪路一段287巷6號</t>
+          <t>蘇澳鎮中山路一段151號</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>胡俊明</t>
+          <t>新北中和區：林先生</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0938126816</t>
+          <t>0931136635</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>基隆市仁二路77號</t>
+          <t>新北市中和區中山路二段228號</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>黃仲駿</t>
+          <t>游家銘</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0955053743</t>
+          <t>0936931171</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>基隆市南新街74-甲2樓</t>
+          <t>新北市瑞芳區大埔路230號</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>莊正參</t>
+          <t>廖庚申</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0922627789</t>
+          <t>0933030647</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>羅東鎮南盟路69巷1號6F-1</t>
+          <t>湯園2B棟5樓之3號</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>三源行</t>
+          <t>李世昌(東方櫥具)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9323759</t>
+          <t>0919282937、0939036501(林's)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>宜蘭市昇平街46號</t>
+          <t>員山鄉賢好路23巷26號</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2022-10-08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>蔡旺燦</t>
+          <t>蔡淑芬</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9557937</t>
+          <t>0928639259</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>羅東鎮復興路二段213巷42號</t>
+          <t>宜蘭市嵐峰路三段32巷13號</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2022-10-08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>邱俊忠</t>
+          <t>米拉設計-游軍鳴</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9388075,0922762660</t>
+          <t>9256799、0933144397</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>宜蘭市黎明三路448巷18弄8號</t>
+          <t>宜蘭市女中路一段87號(家)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021-11-08</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>蕭秀芬</t>
+          <t>朱芳蘋</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9385539,0911209144</t>
+          <t>0915151709</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>宜蘭市東港路二段85號</t>
+          <t>祼水6樓之6</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021-11-08</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>谷倉-羅東店</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t xml:space="preserve">彭敏				</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0928881105				</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>羅東鎮中正北路7號</t>
+          <t xml:space="preserve">羅東鎮竹林街269巷38弄15號				</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021-11-09</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>柳素花</t>
+          <t>洪麗香(廚房)(小蔡)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0920828363</t>
+          <t>0910317267</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>頭城鎮青雲路二段151號</t>
+          <t>三星鄉安農南路一段136號</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021-11-09</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>海棠花(原格林)</t>
+          <t>利澤偶戲館(3、4F)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9321177,0919904013(林鴻飛太太)</t>
+          <t>9501977、9501972、0928144877(曾總監)、0910007406(喻執行長)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>宜蘭市中山路二段410號</t>
+          <t>五結鄉利澤東路37號</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>塔塔髮廊</t>
+          <t>王嘉荷(尊寶5號)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9571980</t>
+          <t>0975327332、★0930988718(姐姐)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>羅東鎮公正路177號</t>
+          <t>冬山鄉親河路一段230巷5號(尊寶)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021-11-10</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>林麗雲(承奕)</t>
+          <t>百岳設計(2樓)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0921633727</t>
+          <t>9380895、0935202253</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>宜蘭市民族路525巷43弄3號4樓</t>
+          <t>宜蘭市校舍一路120號2樓</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>墾趣</t>
+          <t>黃志明的媽媽</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9320398</t>
+          <t>0912682386</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>宜蘭市中山路三段127號</t>
+          <t>三星鄉大隱村大埔中路131巷26號</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021-11-11</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>黃珠玲國際</t>
+          <t>慈安路：戴小姐</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0911209683</t>
+          <t>9388089、0958388089</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>礁溪鄉玉石路42-23號</t>
+          <t>宜蘭市慈安路86巷3之1號2樓</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021-11-12</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>稻民宿謝木森</t>
+          <t xml:space="preserve">李松峰(愛科代裝)				</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>9606677,0975002619</t>
+          <t>0931313132</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>冬山鄉武淵一路56號</t>
+          <t>礁溪鄉德陽路231巷14弄31號-10(凱三後棟)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021-11-13</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>張子宜(智淳)</t>
+          <t>鐵支路早餐</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>★0989956668(張's)</t>
+          <t>9592615、0982734910</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>員山鄉尚好路7號(聯全麻薯)</t>
+          <t>冬山鄉中華路23號(冬山火車站前)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021-11-14</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>薛志明</t>
+          <t xml:space="preserve">礁溪老爺酒店(年度保養)			</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9556089,0939733565</t>
+          <t xml:space="preserve">985211#8177	</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>羅東鎮樹人路1巷12弄3號</t>
+          <t xml:space="preserve">礁溪鄉五峰路69號				</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>周逸</t>
+          <t>劉健弘、林美婷</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0956563192(弟弟),0910668399(小周)</t>
+          <t>0928836143(女)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>羅東鎮安平路83號(225111)</t>
+          <t>冬山鄉大興村中興79號</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021-11-16</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>林映君</t>
+          <t>黃月珍</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0921157337</t>
+          <t>0937866148</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>礁溪鄉大竹圍路266號</t>
+          <t>礁溪鄉仁愛路56號6樓之2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>李順益</t>
+          <t>黃子瑜(蕭明道)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0919900288</t>
+          <t>9380601、0982804502、0910756176(岳父)濾芯更換請聯絡！</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>宜蘭中興路155巷3號</t>
+          <t>宜蘭市校舍一路83巷20號2樓(U梯)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>葉春美</t>
+          <t>湯園：林小姐</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0928085287</t>
+          <t>0915800672</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>宜蘭市中興路155巷5號</t>
+          <t>湯園165號8F之3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>陳美麗(保險)</t>
+          <t>林秋鉛(公廳)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>9281991,0961281991</t>
+          <t>0953249900</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>宜蘭市中山路五段127巷36號</t>
+          <t>湯園165號1F之1(公廳)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2022-10-29</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>方秀娥</t>
+          <t xml:space="preserve">施文龍(S004)			</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0952439021吳'R,0958881005方'S</t>
+          <t xml:space="preserve">0935186422				</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>礁溪鄉奇峰街2號2樓</t>
+          <t xml:space="preserve">員山鄉惠深一路110號				</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>梁少章</t>
+          <t>陳素涼</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9680183,0905650928</t>
+          <t>0982308688</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>冬山鄉香南路57號</t>
+          <t>宜蘭市校舍路83巷2號5樓(巴黎大道；第二管理室B棟)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021-11-18</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>鄧璜福(高鉅代安裝)</t>
+          <t>霍祥琛</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0917693385,0917176570</t>
+          <t>0975673756</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>員山鄉賢德路二段107巷22號、20號</t>
+          <t>宜蘭市嵐峰路一段199巷12弄7號</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021-11-18</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>林宏仁</t>
+          <t>林玉怡(陶淳卡迪亞)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0963022493</t>
+          <t>0911304226</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>五結鄉大吉二路433號</t>
+          <t>宜蘭市女中路三段226巷19號</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021-11-19</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>郭淑君</t>
+          <t>夢幻新時代(前同心緣)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0911218885</t>
+          <t>9220778</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>冬山鄉冬山路三段301巷63號</t>
+          <t>員山鄉金古三路66號2樓</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021-11-22</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>陳宜卉</t>
+          <t>琉園</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>9233781,0987876738</t>
+          <t>9108151#21游小姐</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>員山鄉金泰路300巷75弄16號</t>
+          <t>傳藝</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021-11-22</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>林欣蓉</t>
+          <t>昶達針車行(岳母公司)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0921626303</t>
+          <t>9387181、9387182、0931387181</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>五結鄉清水路15巷1號5樓(晏京帝寶)</t>
+          <t>宜蘭市東港路二段78號</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021-11-25</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>林光輝</t>
+          <t>何明通</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>9906619,0919216317</t>
+          <t>0931044638</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>蘇澳鎮信義路</t>
+          <t>員山鄉深洲路52-2號</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021-11-26</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>致樂元素</t>
+          <t>陳沅利(偉立)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>9615722</t>
+          <t>0932906612</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>羅東鎮復興路388巷47弄22號(頤和園)</t>
+          <t>羅東鎮純精路二段111號6樓</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021-11-27</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>郭宜橤藍嘉榮</t>
+          <t>許峯鳴(新家)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0911911536,0980120270(先生)</t>
+          <t>0921692287、0921214569(張's)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>新北市三重區成功路110號4樓之6</t>
+          <t>五結鄉西河三路16號</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021-12-28</t>
+          <t>2023-01-30</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>簡小姐</t>
+          <t>華晟言</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9388030</t>
+          <t>9371399、0932040858</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>潘彼得</t>
+          <t>宜蘭市延平路60巷122弄48號</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>許家程</t>
+          <t>林有明</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0988670120</t>
+          <t>9384668</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>三星農舍</t>
+          <t>壯圍鄉復興村紅葉路99號之5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2022-02-08</t>
+          <t>2023-02-07</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>大鼻南包子龍潭</t>
+          <t>林三益</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>9288276,9281200</t>
+          <t>0918194433</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>宜蘭市大坡路二段199號</t>
+          <t>宜蘭市校舍二路73號4樓</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2022-02-09</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>紫竹嚴</t>
+          <t>李佳珈(夫是聖母醫生)：標五道RO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>02-24226683</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>0931611130</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>宜蘭市女中路三段226巷7號</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>黃振豪</t>
+          <t>石惠貞</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9874638,0955156231(兒)</t>
+          <t>9370513、0937160141、0963084901(高博軍)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>礁溪鄉白雲二路87號</t>
+          <t>宜蘭市陽明三路80巷7號6F之2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>請上座</t>
+          <t xml:space="preserve">宜麗恬園休閒館		</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>9770450,0915120300</t>
+          <t>0955600633(蔡順昌)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>頭城鎮開蘭路379號</t>
+          <t>員山路二段268號</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>谷倉張鈞發</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>0915613142</t>
-        </is>
-      </c>
+          <t>譚朝煌</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>宜蘭市女中路三段561號</t>
+          <t>宜蘭市旋流路172巷1號</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>林清山</t>
+          <t xml:space="preserve">陳志鴻				</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0919005730</t>
+          <t xml:space="preserve">0915695778				</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>宜蘭市慈安路49巷3弄8號</t>
+          <t xml:space="preserve">壯圍鄉壯五路12巷1-30號				</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>鼎祐牙醫陳小姐3</t>
+          <t>林李阿春</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9530889,0955977522</t>
+          <t>9385178</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>羅東鎮興東路205號</t>
+          <t>宜蘭市陽明二路65號</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2023-03-14</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>林宏彥</t>
+          <t>滿記：佳玲</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>9281912,0921926158</t>
+          <t>0985700765</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>果菜市場</t>
+          <t>五結鄉親河路一段92號</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2023-03-25</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>東嶽廟</t>
+          <t>毛美燕(智淳)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>9322590</t>
+          <t>9610169、0972016299(女)、0972016931(男)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>宜蘭市中山路二段299號</t>
+          <t>羅東鎮維揚路26巷2-1號2樓</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2023-03-27</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>李美雲</t>
+          <t>阮紅簪(越美麗)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">9514481,0927892205,0938135878女兒(林小姐),0927892205(媽媽),0970426566(白'r)							</t>
+          <t>0905588362</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>冬山鄉廣興路680巷127號(宜蘭食品旁)</t>
+          <t>壯圍鄉中央路二段356號</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2023-03-27</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>清心福全五結店</t>
+          <t>陳顯震(老師)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>9600699,0955555885何'R、0933333186(女)</t>
+          <t>0937825732</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>五結鄉五結路二段516號</t>
+          <t>員山鄉尚深路112號</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>高林鍋物燒烤(水電阿賢)</t>
+          <t>黃教瑜'r(展客)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>9324316</t>
+          <t>0927857909</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>宜蘭市三清路34號</t>
+          <t>冬山鄉安農路549巷6號</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>冬山鄉公所-1樓大廳</t>
+          <t>張惠婷(樹之屋)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>9591105#292江'S,9590316</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>0952322293</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>冬山鄉內湖路225號</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>冬山鄉公所-3樓</t>
+          <t>陳鳳山(原π)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>9591105#292江'S,9590316</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>9301838、0922301838</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>壯圍鄉美城村永美路二段260號</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>冬山鄉公所-1樓茶水間</t>
+          <t>張榮芳(湯淺電池)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>9591105#292江'S,9590316</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>9603090、0911828715</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>五結鄉五結中路2段371號</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>冬山鄉民代表會</t>
+          <t>荊鎮寰</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>9593027劉小姐</t>
+          <t>0913399906</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>冬山鄉</t>
+          <t>五結鄉大吉三路350號</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>冬山鄉民代表會</t>
+          <t>王瑞德</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>9593027劉小姐</t>
+          <t>9966007、0939033766(吳's)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>冬山鄉</t>
+          <t>蘇澳鎮中山路一段228巷26號</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>宜蘭旅遊服務中心</t>
+          <t>吳正浩(小戴朋友)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>9312152、9505544#26林's,0911828110梁組長</t>
+          <t>0920600684</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>宜蘭市宜興路一段252號</t>
+          <t>蘇澳鎮中興四巷66號</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2022-02-21</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Camellia(咖啡)</t>
+          <t xml:space="preserve">高碧玉(葉嘉偉阿姨)				</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9588496</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t xml:space="preserve">0937158059				</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宜蘭市延平路39巷10弄11號				</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>春水笈</t>
+          <t>何肇益(老師)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>9882623,0975513760林國文</t>
+          <t>9552498、0937162198</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>礁溪鄉六結路128號</t>
+          <t>三星鄉大村五分路一段211巷8號</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>廣食堂游'r</t>
+          <t>李佳倫(中興保全)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>9386818,0932359581-原羅家压羅先生</t>
+          <t>0976083230</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>宜蘭市黎明二路367巷3號</t>
+          <t>宜蘭市陽明一路106巷11號</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>金宴翔餐廳</t>
+          <t>黃挺瑋(黃耀德兒子)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>9326628,0919215081楊世鴻</t>
+          <t>0970701531、0958201885(女)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>宜蘭市復興路三段107號</t>
+          <t>宜蘭市嵐峰路三段116巷12號</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>光南製藥</t>
+          <t>林敬宏</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>9381378、9383235蔡's</t>
+          <t>9500785</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>宜蘭市黎明二路240號</t>
+          <t>五結鄉自強路42巷73弄19號</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>楓情卡拉OK</t>
+          <t>林素美</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>聯絡電話9548008</t>
+          <t>0915955867</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>羅東鎮天津路38號</t>
+          <t>羅東鎮東安街188號</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>宅急便-宜蘭所</t>
+          <t>陳淑貞</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0972136371</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>0917517500</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>羅東鎮培英路61巷17之3號2樓</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>宅急便-冬山衛</t>
+          <t>趙宸(豪星代裝)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>9500118</t>
+          <t>0973522762(女)、0925525619(男)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>五結鄉中興路2段240號</t>
+          <t>宜蘭市女中路三段513巷1弄21號</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>宅急便-頭城衛</t>
+          <t xml:space="preserve">林慧美(愛菲爾)				</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0972136371</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t xml:space="preserve">9333565、0932266573(男)、0919333565 		</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宜蘭市嵐峰路一段310號4樓之6(嵐心)				</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>水巷茶弄-宜蘭</t>
+          <t xml:space="preserve">吳瑞文(愛菲爾)				</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9363060</t>
+          <t xml:space="preserve">0980254958				</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>宜蘭市中山路二段518號</t>
+          <t xml:space="preserve">宜蘭市嵐峰路一段290號			</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>順有食品</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+          <t>沈芷醇(月眉路)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>★0958586736(女)、0989833648</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>羅東鎮月眉路291巷15號3樓</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>大鼻南包子泰山店</t>
+          <t>吳老師、蘇志正</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>9311838,0928642692</t>
+          <t>0952986902(女)、★0937052273(男)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>宜蘭市泰山路18-5號</t>
+          <t>宜蘭市延平路60巷20弄19號</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-04-08</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>陳奕巽(小戴)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0988450929</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>五結鄉文昌路28-1號</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-04-08</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>李建彥</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>9883108、0930818010</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>礁溪路四段63巷16號</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-04-08</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>林專</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>9385927、0955023617</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>宜蘭市陽明二路61巷13號</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-04-08</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>黃章威(小戴)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0933010519</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>羅東鎮倉前路79號樓之1</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-04-08</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>吉亨：余小姐(五結)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0912590963</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>五結鄉大吉二路457巷38弄6號</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-04-08</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>林佳靜(巧玲朋友)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0937522075</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>宜蘭市鎮平一路411號</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-04-09</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>鄭玉芳</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>9596005、0972243229(女)、0953716573(男)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>冬山鄉香南路275巷6弄24-5號</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-04-09</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>林雍舜</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0920520752</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>冬山鄉美和路一段689巷5號</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>盛堂養生會館(1F)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>9571838、0915293355(林宗輝)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>羅東鎮和平路120號</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>鳴草咖啡-宜蘭</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0919083118</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>宜蘭市碧霞街20-1號</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>利澤偶戲館(1、2F)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9501977、9501972、0928144877(曾總監)、0910007406(喻執行長)				</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>五結鄉利澤東路37號</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>盧嘉良</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0932088066</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>宜蘭市陽明二路89巷10號</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>日日香：林雅雯</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0963084620				</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宜蘭市中興路248巷60號(幸福天空)				</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>潘盈宏</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0937160262、0982610044(媽)</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>羅東鎮河濱路23巷5弄8號</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>蕙珍(遠東鈦金)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0932360727</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>蘇澳鎮福德路370號</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>鈜洋(宿舍)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>9542215#20</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>蘇澳鎮福德路198巷1號(宿舍)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>方秀娥(住家)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0952439021(吳'r)、0958881005(方's)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>礁溪鄉三民村十六結路2號</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>吳榮燦</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>9287157,0937908767</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>宜蘭市梅洲二路(種蘭花)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>陳美方</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0937161246</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>冬山鄉照安路172號</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>羅鈺棠</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0910763879、0958378571(女)</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>五結鄉清水路15巷28號5樓(藝德勳章)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>校舍一路：王小姐</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>9380336、0912098229</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宜蘭市校舍一路103巷10號2樓(巴黎大道；萊爾富樓上)				</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>陳毅豪(俊佳朋友)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0973510537</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>員山鄉惠民路249巷26弄11號</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">周榆盛(玉濟宮兒子家)			</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0977388469</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>壯圍鄉壯濱路一段133號</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>葉嘉偉(奇立丹路)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0988715638、0955770726(父)、0919990809(阿姨)</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>礁溪鄉奇立丹路72巷6號</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>吳麗雲</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0928529868</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>員山鄉賢德路二段157巷10弄5號</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>陳偉傑(輕井澤鄰居)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0987000794</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>宜蘭市黎明三路329巷55弄12號</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">陳郁婷			</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0911231687</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>員山鄉賢德路二段92巷8弄5號</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>王嘉慶</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0972853251、0937522036(林佩萱)</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>宜蘭市黎明三路329巷81號</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>龍月珠(20"大胖)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>9373303、0937157024</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>宜蘭市延平路60巷122弄8號</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>陳瑪莉(東方櫥具)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0966091950</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>宜蘭市延平路41巷53弄31號3樓(芥川賞)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>曾葉河</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0932906611</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>冬山鄉華祥路229號</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>林宏展</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>9370999、0925760130</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>壯圍鄉大福路三段96巷9號</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>李秋美</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>9654065</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>五結鄉二結路68巷5號</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>拉亞漢堡(宜蘭民權新路)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>9355796</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>宜蘭市民權新路465號</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>林清培(店)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>9510063、0922779433</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>羅東鎮建國街30號</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>黃玉鳳(承奕)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0953232008</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>蘇澳鎮信義路100號4樓之2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>豆漿姑(游世傑)：冬山義成路</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0920432872</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>冬山鄉義成路3段322號</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>官老爺休閒農場官燿金</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>9253517,0932088300,0932087918(兒子)</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>壯圍鄉新南路霧罕路3號</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>陳孟軍</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>9333026、0978073990</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>宜蘭市宜中路79巷40號</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>五結中路：黃小姐</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0919920725</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>五結鄉五結中路二段423巷6弄11號</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>神農包子(HM-1687)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0960768498</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>宜蘭市泰山路239號</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>李之寧(代裝)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0919117924</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">五結鄉協和中路14-29號(安娜貝絲民宿)(橙堡後方)				</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>張麗雪</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0927801966</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>宜蘭市東港路一段236號(汽車修理廠)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>中山福德廟(楊國卿賣)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0983888887(朱展慶)</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>冬山鄉</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>黃允璸(民宿)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0973537032、0919551253(爸)</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>員山鄉永廣路15之6號(余建明家旁邊)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>林寶珠(金宴翔阿姨)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>9301126</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>壯圍鄉古亭路46號</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>富哥</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>02-24220337、0921601809(富哥)</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>基隆市信一路102號</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>牛肆</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0905080026</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>台北市中山區吉林路422號</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">張建龍(小戴)	</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9596095、0928268884	</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>冬山鄉采舍路28巷22號</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>徐俊聖</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>9354083、0928073380</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>宜蘭市碧霞街159號</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>吳安書</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>9357054、0929288779</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>宜蘭市東後街40號</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>水岸楓林(先鋒林老闆)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>9508333、0919313823</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>冬山鄉八仙一路22號</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>黃振成(大福路)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>9326221(店)、9309060(家)、0925489071(黃太太)、0925489071</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>宜蘭市大福路一段11巷18號</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>吳國章(承奕櫥具)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>9223626、0919252978</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>員山鄉惠深二路二段69號</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>鄭松根</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>9252676、0932611327</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>宜蘭市中山路一段533巷19號</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>歐珍毅</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0922260945</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>宜蘭市民族路517號4樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>李國登</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0932088079、0961219328(弟)</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>宜蘭市黎明二路330號</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>葉巧雲(博愛同事)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0989007646</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>羅東鎮重陽街1號6樓之1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2023-04-22</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>吳薌雨(健康路)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0953975578</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>宜蘭市健康路二段64號</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2023-04-22</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>李哲維</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0919341342</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>宜蘭市七張路216巷7弄2號</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2023-04-22</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>林進義</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>9284977、0901100507</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>宜蘭市津梅路120巷42號</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2023-04-22</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>吳豐儒</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0927587106</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>宜蘭市延平路56巷51弄11號</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>三源行</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>9323759</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>宜蘭市昇平街46號</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>李玲琇</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0989800249</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>宜蘭市黎明三路329巷25弄11號</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>周美蘭</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0933129971</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>宜蘭市樹人路76號3樓(歡歡喜喜)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>王羿鈞</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0963610669</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>礁溪鄉武暖路108-16號</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>李秀鳳 (皇家)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0975631992</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>礁溪鄉武暖路20-5號(礁溪公托斜對面)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">林啟祥(中興路)		</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0989800445				</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宜蘭市中興路161號				</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">何竹雅(宜昌介紹)			</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0913539405</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>礁溪鄉漳福路208之7號</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>沈老師(飛揚補習班)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0935101028、0953101028</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>羅東鎮忠孝路</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>大嫂的阿公</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>南方澳</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>陳浩明</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>9903269、0988108869(女)、0935921490(男)</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>蘇澳鎮新馬路11巷6號</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>麗王(店)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>9363263、0910059191</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>宜蘭市和睦路38號</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>韋傑老師(家)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>9543732、0920208461</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>羅東鎮民生路167號</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">吳沛儀		</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0939547790</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>宜蘭市東港路二段160巷1弄39號</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>孫子文</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0928645590</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>宜蘭市農權路二段21巷12號</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>林敏靖(廚房)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0988013555、0988703739(陳'R)</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>宜蘭市縣政八街66號</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>內政部營建署</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>9604093(許's)、0921633867(黃'r)</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>五結鄉自強路42巷70弄7號</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>探索水產科技(股)公司</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0982881842(邱寶嬅)、0989663805(鍾'r)</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>五結鄉利工三路59號</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>沈阿姨</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>9380550、0919213931</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>宜蘭市陽明路62巷120-7號</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>長春藤幼兒園</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>9385383、0935009089(廖恒毅園長)</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>宜蘭市校舍路56號</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>紀蘋恩</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0955474737</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>冬山鄉美和路一段120巷6號</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>游清淞(培根老師三姊家)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0930088001(陳's)</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>宜蘭市民權路三段42巷10號</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>盧秋香(打牌)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>0972931063</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>礁溪鄉中山路一段48號隔壁轉角玻璃門</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>游翔宇</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>南方澳內埤學府路74號</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>林秋鉛(湯園B棟)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>0953249900</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>湯園165號10F之3(B棟)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>江幸枝</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>9385635、0921842620</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>宜蘭市校舍二路27巷7號6樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>吳文尹(吳文元弟)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0900001551</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>宜蘭市河濱北路776巷10號</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">羅卉婷公公家		</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0920092588(羅卉婷)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>五結鄉文德路38巷號</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>艾莉老師</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0987008531</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>宜蘭市宜中路212之16樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>大漁日和</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>9881717、0937807470(游'r)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>礁溪鄉奇立丹路195巷29號</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>大漁部屋</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0937943348(老闆娘)</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>礁溪鄉奇峰街19號</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>傻師傅湯包</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>9371376、0933984775(李小姐)</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>宜蘭市東港路17-59號(悟饕旁)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>謝燕(梅子姑姑)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>9593281、0933244007(男)</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>冬山鄉義成路一段336號(宜慶)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>丁律銘(Dr.)4月展客</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0975029677</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>台北市中山區吉林路53號3樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>陳慶淳(4月展客)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>0963358169</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>新北市中和區工專路126號2樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>劉紋君(4月展客)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0988631258(劉世盛；爸)	</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>新北市新店區中興路三段228巷20號1樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>花食間(生魚片)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0937909847(陳怡寧)</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>頭城鎮青雲路三段275號</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>林靖晏(黃吉宏表弟)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>0922885525</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>宜蘭市陽明三路40號3樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">吳濡君's(宮黛代裝)			</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0920132433</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>員山鄉賢德路二段157巷73號(69號旁)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>燒肉老大(小蒙牛)：水槽、咖啡機(EP25)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>9559968(黃's)</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>羅東鎮興東路8之1號2樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>燒肉老大(小蒙牛)：製冰機、汽水機</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>9559968(黃's)</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>羅東鎮興東路8之1號2樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2023-04-29</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>陳秀珠(小蔡)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>0937603057、0938092554(小女兒)、0988195500(男)</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>五結鄉成功路二巷七弄68號</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2023-04-29</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>黃詩雯(林美滿表妹)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>9380233、0910954169</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>羅東鎮北成路二段1巷77弄6號</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>阿嬤家</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>吳榮燦(種蘭花)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>9287157、★0911860901(兒子)</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>宜蘭市梅洲二路</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2023-06-01</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Drinkstore(水雲朵)(開水機)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>9323696</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>宜蘭市神農路一段130號1樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2023-06-01</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Drinkstore(水雲朵)(製冰機)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>9323696、0955940296(股東之一)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>宜蘭市神農路一段130號1樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2023-06-20</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ToDo 早餐-宜商店</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>9386331、0982591041(曾's)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>宜蘭市延平路50之33號</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>陳定弘(花宅)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>★9358826、0912234101</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>宜蘭市碧霞街26號</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>蒸腸粉：林先生</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>0966515833</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>宜蘭市東港路一段186巷28弄7號(五大社區)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2023-07-08</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>紫竹嚴</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>02-24226683</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>林宏彥(果菜市場)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>9281912、0921926158</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>果菜市場</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>關西企業</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>9908686#22、0952887582(林小姐)</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>五結鄉利工二路78巷2號</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>武荖坑(B區男浴室)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9505544,0935272131林組長,9961201(FAX),0982533857(建興)					</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>武荖坑</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>立泰混凝土</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>9906165~9、0910122503(主任)</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>蘇澳鎮龍祥十路5號</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>TEA's(羅東夜市)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>0955615722(鄭佳妤)</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>羅東鎮民權路63號</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>力行國小-樹人樓3F會議室前</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9322309#289(吳麗玲)、9322309#282(陳主任)				</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宜蘭市力行路152號				</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>大礁溪跑跑民宿</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>0912705899(林's)、0909710588(民宿電話)</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>礁溪鄉二結村二結路36-5號</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>神農包子(20"三道)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>0960768498</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>宜蘭市泰山路239號</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>金宴翔餐廳(普德三溫)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>9326628、0919215081(楊世鴻)</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>宜蘭市復興路三段107號</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>皮皮手作千層【L】</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9321500、0908700506(蔡孟宏)	</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>新月五穀廟對面</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>梅花湖(哺乳室)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>9591314、0933989337(胡組長) / FAX：9593604</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>梅花湖</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>幸福．星空精品旅店</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>9552877、0911225570(張柏瑋)</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>羅東鎮公正路27號9樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>鼎祐牙醫</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>9530889、0955977522</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>羅東鎮興東路205號</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">南昌社區發展協會(1F)				</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9556157(沈's)、0933989226						</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">羅東鎮站前南路106號				</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>富禾行銷股份有限公司(味丹食品)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>9601850</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>羅東鎮中山路二段131號(巷內到底)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>孫瑋俊媽媽家(霏班導)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>9381577、0928451577(爸)、0935381577(媽)</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>宜蘭市中興路219號2樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>宜蘭梅州慈航宮</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>9283400、0935159237(吳進東)、0937942421(呂箽全)</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>宜蘭市津梅路136-1號</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>做麵：鄭先生</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>9312338、0910948249</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>宜蘭市南館市場</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>邱巧薇(露境東岳露營區)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>0920755780(邱's)、0935069056</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>蘇澳鎮蘇花路三段211號</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>奕順軒(羅東：HM-3687)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>9550216,0937911010(林副總；財哥)</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>羅東鎮民權路160號</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>貳玖巷早午餐(標五道RO)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>9593129</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>冬山鄉冬山路二段29巷35弄</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>長春藤補習班</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>9372275、0935009089(廖恒毅園長)</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>宜蘭市陽明二路15號</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">培爾傑特：莊小姐(國榮路)	</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>0933096122</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>宜蘭市國榮路92巷1弄21號</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>余思賢(水之緣代裝)【L】 (宜大老師)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>0929933123</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>宜蘭市嵐峰路一段310號4樓之3(嵐心)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>洗車站</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>9251958、0916929868(張柏銓)</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>宜蘭市中山路一段118號</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>順有食品</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">葉奕承				</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0952098244				</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">壯圍鄉壯五路12巷1之40號				</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>吳進南(水電阿隆介紹)AKS U</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>0920137767、0932360067(女)、0906841468(媳婦高's)</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>員山鄉賢德路二段220巷50號</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>李秋心(瓦特代裝)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>0937300914</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>羅東鎮安平路71巷10號</t>
         </is>
       </c>
     </row>

--- a/Project/static/this_month.xlsx
+++ b/Project/static/this_month.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5351,6 +5351,28 @@
         </is>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>fuck</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>0228053457</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>新北市淡水區濱海路三段148巷51號9樓</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
